--- a/Delay Model/OutPut/3rd/pro_cost.xlsx
+++ b/Delay Model/OutPut/3rd/pro_cost.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -344,16 +344,16 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>13.871</v>
+        <v>12.2302</v>
       </c>
       <c r="C1">
-        <v>11.405099999999999</v>
+        <v>10.113</v>
       </c>
       <c r="D1">
-        <v>8.7241999999999997</v>
+        <v>7.4504000000000001</v>
       </c>
       <c r="E1">
-        <v>6.5013183859197889</v>
+        <v>5.3003</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -361,16 +361,16 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>25.263026701539552</v>
+        <v>22.274664347571843</v>
       </c>
       <c r="C2">
-        <v>20.771923137028963</v>
+        <v>18.418642421791471</v>
       </c>
       <c r="D2">
-        <v>15.889243569286378</v>
+        <v>13.569292346417006</v>
       </c>
       <c r="E2">
-        <v>12.14749978619742</v>
+        <v>9.9034363947202859</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -378,16 +378,16 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>47.203135308721613</v>
+        <v>41.619478440828139</v>
       </c>
       <c r="C3">
-        <v>26.127908599588473</v>
+        <v>23.16784067370196</v>
       </c>
       <c r="D3">
-        <v>25.836029237393785</v>
+        <v>22.063771145810353</v>
       </c>
       <c r="E3">
-        <v>15.279700489623671</v>
+        <v>12.457011285672408</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -395,16 +395,16 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>67.889498413643139</v>
+        <v>59.858852533958505</v>
       </c>
       <c r="C4">
-        <v>37.578237077311933</v>
+        <v>33.32094515285754</v>
       </c>
       <c r="D4">
-        <v>37.158444125697756</v>
+        <v>31.73302676624775</v>
       </c>
       <c r="E4">
-        <v>20.681192778312539</v>
+        <v>16.860661111489573</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -412,16 +412,16 @@
         <v>50</v>
       </c>
       <c r="B5">
-        <v>91.888961126493754</v>
+        <v>81.019419823318003</v>
       </c>
       <c r="C5">
-        <v>45.287461497547007</v>
+        <v>40.156780574014505</v>
       </c>
       <c r="D5">
-        <v>46.810328037517863</v>
+        <v>39.975661723793948</v>
       </c>
       <c r="E5">
-        <v>24.923966490079255</v>
+        <v>20.319647761517416</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -429,16 +429,16 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>107.00070152440661</v>
+        <v>94.343593092336377</v>
       </c>
       <c r="C6">
-        <v>56.972185317214027</v>
+        <v>50.517725413454102</v>
       </c>
       <c r="D6">
-        <v>58.8879702135104</v>
+        <v>50.289875665245866</v>
       </c>
       <c r="E6">
-        <v>29.022875724300228</v>
+        <v>23.661346679262042</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -446,16 +446,16 @@
         <v>70</v>
       </c>
       <c r="B7">
-        <v>123.60459932481878</v>
+        <v>108.98341652818101</v>
       </c>
       <c r="C7">
-        <v>65.450510650749081</v>
+        <v>58.035529211583011</v>
       </c>
       <c r="D7">
-        <v>68.025946181600816</v>
+        <v>58.093637173769373</v>
       </c>
       <c r="E7">
-        <v>33.341919853208267</v>
+        <v>27.18251396219808</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -463,16 +463,16 @@
         <v>80</v>
       </c>
       <c r="B8">
-        <v>158.60213012154486</v>
+        <v>139.84109089557481</v>
       </c>
       <c r="C8">
-        <v>77.164285851226836</v>
+        <v>68.422234159582729</v>
       </c>
       <c r="D8">
-        <v>80.200650908094048</v>
+        <v>68.490741790154274</v>
       </c>
       <c r="E8">
-        <v>42.782384635737827</v>
+        <v>34.878998354534495</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -480,16 +480,16 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <v>171.36067603014379</v>
+        <v>151.09042895132757</v>
       </c>
       <c r="C9">
-        <v>92.992423315471086</v>
+        <v>82.45717941880028</v>
       </c>
       <c r="D9">
-        <v>86.652289897597342</v>
+        <v>74.000392087877316</v>
       </c>
       <c r="E9">
-        <v>51.55801778768857</v>
+        <v>42.033468514928572</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -497,19 +497,20 @@
         <v>100</v>
       </c>
       <c r="B10">
-        <v>199.54171462571486</v>
+        <v>175.93793369010294</v>
       </c>
       <c r="C10">
-        <v>104.15270703316267</v>
+        <v>92.353098721306594</v>
       </c>
       <c r="D10">
-        <v>97.051676273024299</v>
+        <v>82.881388425820163</v>
       </c>
       <c r="E10">
-        <v>60.036967117524334</v>
+        <v>48.94606261742004</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Delay Model/OutPut/3rd/pro_cost.xlsx
+++ b/Delay Model/OutPut/3rd/pro_cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB0A1A40-CC51-4567-BBB0-36FD031671E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,8 +20,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +29,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +83,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,183 +376,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>10</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>12.2302</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>10.113</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>7.4504000000000001</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>5.3003</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1">
+        <v>9.8418471971860697</v>
+      </c>
+      <c r="G1" s="2">
+        <v>12.1396622414899</v>
+      </c>
+      <c r="H1" s="2">
+        <v>10.148448798518899</v>
+      </c>
+      <c r="I1" s="2">
+        <v>8.3864487985190408</v>
+      </c>
+      <c r="J1" s="2">
+        <v>7.3184487985190101</v>
+      </c>
+      <c r="K1">
+        <v>9.9381617420716495</v>
+      </c>
+      <c r="L1" s="3">
+        <v>12.2302</v>
+      </c>
+      <c r="M1" s="3">
+        <v>10.113</v>
+      </c>
+      <c r="N1" s="3">
+        <v>8.3864487985190408</v>
+      </c>
+      <c r="O1" s="3">
+        <v>7.3184487985190101</v>
+      </c>
+      <c r="P1">
+        <v>9.9381617420716495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>22.274664347571843</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>18.418642421791471</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>13.569292346417006</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>9.9034363947202859</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2">
+        <v>17.924796232065741</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43.757857133628697</v>
+      </c>
+      <c r="H2" s="2">
+        <v>22.412781886091</v>
+      </c>
+      <c r="I2" s="2">
+        <v>17.068781886091099</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10.7167818860914</v>
+      </c>
+      <c r="K2">
+        <v>20.246477257311401</v>
+      </c>
+      <c r="L2" s="3">
+        <v>25.110362502759902</v>
+      </c>
+      <c r="M2" s="3">
+        <v>22.412781886091</v>
+      </c>
+      <c r="N2" s="3">
+        <v>17.068781886091099</v>
+      </c>
+      <c r="O2" s="3">
+        <v>10.7167818860914</v>
+      </c>
+      <c r="P2">
+        <v>20.079943480384703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>41.619478440828139</v>
       </c>
-      <c r="C3">
-        <v>23.16784067370196</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>29.948850745943854</v>
+      </c>
+      <c r="D3" s="1">
         <v>22.063771145810353</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>12.457011285672408</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3">
+        <v>29.145853136844799</v>
+      </c>
+      <c r="G3" s="2">
+        <v>75.648603288881702</v>
+      </c>
+      <c r="H3" s="2">
+        <v>46.237032660601898</v>
+      </c>
+      <c r="I3" s="2">
+        <v>38.200977070551701</v>
+      </c>
+      <c r="J3" s="2">
+        <v>24.114670763841001</v>
+      </c>
+      <c r="K3">
+        <v>49.275678942887303</v>
+      </c>
+      <c r="L3" s="3">
+        <v>42.876398501725198</v>
+      </c>
+      <c r="M3" s="3">
+        <v>34.054108951894897</v>
+      </c>
+      <c r="N3" s="3">
+        <v>26.5691956602627</v>
+      </c>
+      <c r="O3" s="3">
+        <v>12.1356423685921</v>
+      </c>
+      <c r="P3">
+        <v>37.4635300481687</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>59.858852533958505</v>
       </c>
-      <c r="C4">
-        <v>33.32094515285754</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="1">
+        <v>43.073673854700885</v>
+      </c>
+      <c r="D4" s="1">
         <v>31.73302676624775</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>16.860661111489573</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4">
+        <v>41.918769534202987</v>
+      </c>
+      <c r="G4" s="2">
+        <v>108.692194443174</v>
+      </c>
+      <c r="H4" s="2">
+        <v>65.042869697331696</v>
+      </c>
+      <c r="I4" s="2">
+        <v>54.329880781135799</v>
+      </c>
+      <c r="J4" s="2">
+        <v>36.221484640095802</v>
+      </c>
+      <c r="K4">
+        <v>66.710959661974698</v>
+      </c>
+      <c r="L4" s="3">
+        <v>58.331702782492002</v>
+      </c>
+      <c r="M4" s="3">
+        <v>46.269685451069002</v>
+      </c>
+      <c r="N4" s="3">
+        <v>37.427117901878603</v>
+      </c>
+      <c r="O4" s="3">
+        <v>18.531905362969798</v>
+      </c>
+      <c r="P4">
+        <v>45.251080611681189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>81.019419823318003</v>
       </c>
-      <c r="C5">
-        <v>40.156780574014505</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="1">
+        <v>54.262035194449716</v>
+      </c>
+      <c r="D5" s="1">
         <v>39.975661723793948</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>20.319647761517416</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>52.807145158914942</v>
+      </c>
+      <c r="G5" s="2">
+        <v>153.00862798716199</v>
+      </c>
+      <c r="H5" s="2">
+        <v>96.0090492113425</v>
+      </c>
+      <c r="I5" s="2">
+        <v>83.269917123843001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>61.576807298777098</v>
+      </c>
+      <c r="K5">
+        <v>90.433638666389399</v>
+      </c>
+      <c r="L5" s="3">
+        <v>76.380449876983207</v>
+      </c>
+      <c r="M5" s="3">
+        <v>68.610855030396493</v>
+      </c>
+      <c r="N5" s="3">
+        <v>52.2679738807267</v>
+      </c>
+      <c r="O5" s="3">
+        <v>35.735533475483102</v>
+      </c>
+      <c r="P5">
+        <v>64.314670167529385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>94.343593092336377</v>
       </c>
-      <c r="C6">
-        <v>50.517725413454102</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="1">
+        <v>68.262309755534119</v>
+      </c>
+      <c r="D6" s="1">
         <v>50.289875665245866</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>23.661346679262042</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6">
+        <v>66.43204014050734</v>
+      </c>
+      <c r="G6" s="2">
+        <v>452.13624899108601</v>
+      </c>
+      <c r="H6" s="2">
+        <v>127.290453788229</v>
+      </c>
+      <c r="I6" s="2">
+        <v>112.426634345202</v>
+      </c>
+      <c r="J6" s="2">
+        <v>87.157876347846596</v>
+      </c>
+      <c r="K6">
+        <v>113.590160974594</v>
+      </c>
+      <c r="L6" s="3">
+        <v>99.230911043952901</v>
+      </c>
+      <c r="M6" s="3">
+        <v>83.671768307532503</v>
+      </c>
+      <c r="N6" s="3">
+        <v>70.961097538154206</v>
+      </c>
+      <c r="O6" s="3">
+        <v>46.600949320439597</v>
+      </c>
+      <c r="P6">
+        <v>74.61033971834209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>70</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>108.98341652818101</v>
       </c>
-      <c r="C7">
-        <v>58.035529211583011</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="1">
+        <v>78.85495446396564</v>
+      </c>
+      <c r="D7" s="1">
         <v>58.093637173769373</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>27.18251396219808</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7">
+        <v>76.740671667696574</v>
+      </c>
+      <c r="G7" s="2">
+        <v>759.64185959685005</v>
+      </c>
+      <c r="H7" s="2">
+        <v>152.317340811219</v>
+      </c>
+      <c r="I7" s="2">
+        <v>135.30527194058001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>106.11975160912</v>
+      </c>
+      <c r="K7">
+        <v>142.56383066544501</v>
+      </c>
+      <c r="L7" s="3">
+        <v>124.338546316755</v>
+      </c>
+      <c r="M7" s="3">
+        <v>114.53547137115901</v>
+      </c>
+      <c r="N7" s="3">
+        <v>87.932374794458596</v>
+      </c>
+      <c r="O7" s="3">
+        <v>70.704075454340995</v>
+      </c>
+      <c r="P7">
+        <v>96.162266072086467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>80</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>139.84109089557481</v>
       </c>
-      <c r="C8">
-        <v>68.422234159582729</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>92.967742902908583</v>
+      </c>
+      <c r="D8" s="1">
         <v>68.490741790154274</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>34.878998354534495</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8">
+        <v>90.475063771156542</v>
+      </c>
+      <c r="G8" s="2">
+        <v>793.37231837237005</v>
+      </c>
+      <c r="H8" s="2">
+        <v>188.460784298536</v>
+      </c>
+      <c r="I8" s="2">
+        <v>168.65081424614999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>134.86915018240401</v>
+      </c>
+      <c r="K8">
+        <v>160.70073203562399</v>
+      </c>
+      <c r="L8" s="3">
+        <v>142.82715437412699</v>
+      </c>
+      <c r="M8" s="3">
+        <v>132.61158002841501</v>
+      </c>
+      <c r="N8" s="3">
+        <v>110.11906588923701</v>
+      </c>
+      <c r="O8" s="3">
+        <v>93.228875181365098</v>
+      </c>
+      <c r="P8">
+        <v>132.97692926308517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>90</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>151.09042895132757</v>
       </c>
-      <c r="C9">
-        <v>82.45717941880028</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="1">
+        <v>100.44641431127231</v>
+      </c>
+      <c r="D9" s="1">
         <v>74.000392087877316</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>42.033468514928572</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9">
+        <v>97.753214788567817</v>
+      </c>
+      <c r="G9" s="2">
+        <v>827.83998031816805</v>
+      </c>
+      <c r="H9" s="2">
+        <v>224.809453962546</v>
+      </c>
+      <c r="I9" s="2">
+        <v>201.58501480848901</v>
+      </c>
+      <c r="J9" s="2">
+        <v>162.299996266482</v>
+      </c>
+      <c r="K9">
+        <v>202.56558303141699</v>
+      </c>
+      <c r="L9" s="3">
+        <v>166.55749197656701</v>
+      </c>
+      <c r="M9" s="3">
+        <v>154.54759860094501</v>
+      </c>
+      <c r="N9" s="3">
+        <v>130.35101602468501</v>
+      </c>
+      <c r="O9" s="3">
+        <v>109.276927009632</v>
+      </c>
+      <c r="P9">
+        <v>151.10371871304713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>100</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>175.93793369010294</v>
       </c>
-      <c r="C10">
-        <v>92.353098721306594</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="1">
+        <v>112.50127256930088</v>
+      </c>
+      <c r="D10" s="1">
         <v>82.881388425820163</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>48.94606261742004</v>
+      </c>
+      <c r="F10">
+        <v>109.48485455513104</v>
+      </c>
+      <c r="G10" s="2">
+        <v>865.62740614773497</v>
+      </c>
+      <c r="H10" s="2">
+        <v>326.19407258481903</v>
+      </c>
+      <c r="I10" s="2">
+        <v>300.36132198520198</v>
+      </c>
+      <c r="J10" s="2">
+        <v>256.61242684050399</v>
+      </c>
+      <c r="K10">
+        <v>486.79864249065099</v>
+      </c>
+      <c r="L10" s="3">
+        <v>187.530020502811</v>
+      </c>
+      <c r="M10" s="3">
+        <v>176.698601534067</v>
+      </c>
+      <c r="N10" s="3">
+        <v>167.786815283572</v>
+      </c>
+      <c r="O10" s="3">
+        <v>136.86704177201699</v>
+      </c>
+      <c r="P10">
+        <v>178.48695631510566</v>
       </c>
     </row>
   </sheetData>
